--- a/Practice Data/Laura's Data/metadata.xlsx
+++ b/Practice Data/Laura's Data/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ObrienJas\Documents\Students-PostDocs-Terms\Current\Malek Smadi\Data for Malek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ObrienJas\Documents\GitHub\Maleks_qPCR_Pipeline\Practice Data\Laura's Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931EECFE-C3BA-4E75-81F5-8B4E2AA24F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BADE76-4A31-497E-813A-3ACFEB08A452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,21 +44,9 @@
     <t>site</t>
   </si>
   <si>
-    <t>BL-1</t>
-  </si>
-  <si>
-    <t>BL-2</t>
-  </si>
-  <si>
-    <t>BL-3</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
-    <t>BL-4</t>
-  </si>
-  <si>
     <t>wetland_3</t>
   </si>
   <si>
@@ -147,6 +135,18 @@
   </si>
   <si>
     <t>WL8_4</t>
+  </si>
+  <si>
+    <t>BL_1</t>
+  </si>
+  <si>
+    <t>BL_2</t>
+  </si>
+  <si>
+    <t>BL_3</t>
+  </si>
+  <si>
+    <t>BL_4</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,226 +486,226 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Practice Data/Laura's Data/metadata.xlsx
+++ b/Practice Data/Laura's Data/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ObrienJas\Documents\GitHub\Maleks_qPCR_Pipeline\Practice Data\Laura's Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smadim\Documents\GitHub\Maleks_qPCR_Pipeline\Practice Data\Laura's Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BADE76-4A31-497E-813A-3ACFEB08A452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9ECA2C-EA69-4DD0-8C82-4B8141D11FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
-    <t>sampleID</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>BL_4</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Site</t>
   </si>
 </sst>
 </file>
@@ -467,245 +467,245 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Practice Data/Laura's Data/metadata.xlsx
+++ b/Practice Data/Laura's Data/metadata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smadim\Documents\GitHub\Maleks_qPCR_Pipeline\Practice Data\Laura's Data\"/>
     </mc:Choice>
@@ -14,10 +14,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" r:id="rId5" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
   <si>
     <t>blank</t>
   </si>
@@ -148,11 +150,156 @@
   <si>
     <t>Site</t>
   </si>
+  <si>
+    <t>CYP3A7</t>
+  </si>
+  <si>
+    <t>CYP1A4</t>
+  </si>
+  <si>
+    <t>UGT1A9</t>
+  </si>
+  <si>
+    <t>SULT1B1</t>
+  </si>
+  <si>
+    <t>BATF3</t>
+  </si>
+  <si>
+    <t>PDK4</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>ACSL5</t>
+  </si>
+  <si>
+    <t>SLCO1A2</t>
+  </si>
+  <si>
+    <t>TTR</t>
+  </si>
+  <si>
+    <t>HMOX1</t>
+  </si>
+  <si>
+    <t>THRSP</t>
+  </si>
+  <si>
+    <t>IGF1</t>
+  </si>
+  <si>
+    <t>SULT1E1</t>
+  </si>
+  <si>
+    <t>CYP7B1</t>
+  </si>
+  <si>
+    <t>FGF19</t>
+  </si>
+  <si>
+    <t>ALAS1</t>
+  </si>
+  <si>
+    <t>IL16</t>
+  </si>
+  <si>
+    <t>MT4L</t>
+  </si>
+  <si>
+    <t>SCD</t>
+  </si>
+  <si>
+    <t>LBFABP</t>
+  </si>
+  <si>
+    <t>CDKN1A</t>
+  </si>
+  <si>
+    <t>GADD45A</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>ALDH1A1</t>
+  </si>
+  <si>
+    <t>MSH2</t>
+  </si>
+  <si>
+    <t>CRYAB</t>
+  </si>
+  <si>
+    <t>FOXA1</t>
+  </si>
+  <si>
+    <t>APOB</t>
+  </si>
+  <si>
+    <t>POLB</t>
+  </si>
+  <si>
+    <t>POLK</t>
+  </si>
+  <si>
+    <t>TP63</t>
+  </si>
+  <si>
+    <t>C1008572</t>
+  </si>
+  <si>
+    <t>LOC420209</t>
+  </si>
+  <si>
+    <t>LSS</t>
+  </si>
+  <si>
+    <t>AOC1</t>
+  </si>
+  <si>
+    <t>MGST3</t>
+  </si>
+  <si>
+    <t>LEAP2</t>
+  </si>
+  <si>
+    <t>FGA</t>
+  </si>
+  <si>
+    <t>MAT1A</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t>NOS2</t>
+  </si>
+  <si>
+    <t>EEF1A1</t>
+  </si>
+  <si>
+    <t>RPL4</t>
+  </si>
+  <si>
+    <t>GGDC</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,8 +619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -711,4 +858,8542 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="K2" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="M2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="O2" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="P2" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="R2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S2" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="T2" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="U2" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="V2" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="W2" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="X2" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="AV2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="G3" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34.36</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="O3" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="R3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="T3" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="U3" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="W3" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="X3" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="R4" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="U4" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="V4" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="W4" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="X4" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="AV4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="N5" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="O5" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="R5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="V5" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="X5" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="W6" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="X6" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>27.11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="AV6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="N7" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="R7" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="S7" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="T7" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="U7" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="V7" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="W7" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="AW7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="M8" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="O8" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="R8" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="S8" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="T8" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="U8" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="V8" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="W8" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="X8" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>35.59</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="AV8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>37.52</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="J9" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="L9" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="N9" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="O9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>34.04</v>
+      </c>
+      <c r="R9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S9" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="T9" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="U9" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="W9" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="X9" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="AW9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="L10" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="M10" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="N10" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P10" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>36.31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="T10" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="V10" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="W10" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>35.11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>38.18</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>31.14</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>33.82</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="AV10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>20.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="L11" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="N11" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="O11" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="R11" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="S11" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="T11" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="U11" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="V11" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="X11" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AV11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>19.19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E12" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="J12" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="N12" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="O12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="Q12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S12" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="T12" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="U12" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="V12" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="W12" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="AI12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="AV12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="M13" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="N13" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="O13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P13" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="R13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="U13" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="W13" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="X13" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>35.06</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="AV13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="K14" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="L14" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="M14" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="O14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>37.01</v>
+      </c>
+      <c r="R14" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="S14" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="T14" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="W14" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="X14" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34.32</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>33.86</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="AV14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>20.24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="E15" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="G15" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="M15" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="O15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P15" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="R15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S15" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="T15" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="X15" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="AW15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="J16" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="N16" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="O16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="R16" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="S16" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="U16" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="W16" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="F17" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="H17" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="M17" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="N17" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="O17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P17" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="R17" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="S17" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="T17" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="U17" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="V17" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="W17" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="X17" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="AI17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AV17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>37.51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>19.26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="K18" t="n">
+        <v>33.87</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="M18" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="N18" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="R18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="T18" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="V18" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="W18" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="X18" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="G19" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="M19" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="N19" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="P19" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="R19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="T19" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="U19" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="V19" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="X19" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="AV19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>20.31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="G20" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="L20" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="M20" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="N20" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="P20" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="R20" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="S20" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="T20" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="U20" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="V20" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="W20" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="X20" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="AV20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AR21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AS21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D22" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="G22" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="H22" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="J22" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="K22" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="L22" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="M22" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="N22" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="O22" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="R22" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="S22" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="T22" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="U22" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="V22" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="W22" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="X22" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>36.01</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="AV22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="D23" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="F23" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="G23" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="H23" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="K23" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="L23" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="M23" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="O23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="R23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S23" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="T23" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="W23" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="X23" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="AV23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>20.26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="G24" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="K24" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="L24" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="M24" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="O24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="R24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S24" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="T24" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="U24" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="V24" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="W24" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="X24" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="AV24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>36.48</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D25" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="E25" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="K25" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="L25" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="M25" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="O25" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="P25" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="R25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S25" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="U25" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="V25" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="X25" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>39.11</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>18.65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="D26" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="G26" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="H26" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="I26" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J26" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="L26" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="M26" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="N26" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="O26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P26" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="R26" t="n">
+        <v>34.76</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="T26" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="U26" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="V26" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="W26" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="X26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="E27" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="L27" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="M27" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="N27" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="O27" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="P27" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="R27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S27" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="T27" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="U27" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="V27" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="W27" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="X27" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AV27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="F28" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="M28" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="N28" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="O28" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="R28" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="S28" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="T28" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="U28" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="V28" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="W28" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="X28" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="AV28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AK29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AL29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AN29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AP29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AQ29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AR29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AS29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AT29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AU29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AV29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="K2" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="M2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="O2" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="P2" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="R2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S2" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="T2" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="U2" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="V2" t="n">
+        <v>20.74</v>
+      </c>
+      <c r="W2" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="X2" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>25.11</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="AV2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="G3" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34.36</v>
+      </c>
+      <c r="L3" t="n">
+        <v>25.37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="N3" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="O3" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="R3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S3" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="T3" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="U3" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="W3" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="X3" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>32.31</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>35.41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>38.09</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>36.61</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="R4" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="U4" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="V4" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="W4" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="X4" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>34.92</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="AV4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>37.84</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>20.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L5" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="N5" t="n">
+        <v>31.18</v>
+      </c>
+      <c r="O5" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="R5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="V5" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="X5" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="W6" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="X6" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>27.11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="AV6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="H7" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="J7" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="N7" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="R7" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="S7" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="T7" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="U7" t="n">
+        <v>28.56</v>
+      </c>
+      <c r="V7" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="W7" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="AW7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="M8" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="O8" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="R8" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="S8" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="T8" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="U8" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="V8" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="W8" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="X8" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>33.57</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>35.59</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="AV8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>37.52</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="J9" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="K9" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="L9" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="N9" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="O9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>34.04</v>
+      </c>
+      <c r="R9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S9" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="T9" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="U9" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="W9" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="X9" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="AW9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="L10" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="M10" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="N10" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P10" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>36.31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="T10" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="V10" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="W10" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>35.11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>38.18</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>31.14</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>33.82</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>33.38</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="AV10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>20.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="L11" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="N11" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="O11" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="R11" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="S11" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="T11" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="U11" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="V11" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="X11" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AV11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>19.19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="E12" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="J12" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="N12" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="O12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P12" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="Q12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S12" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="T12" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="U12" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="V12" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="W12" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>31.04</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="AI12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="AV12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="M13" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="N13" t="n">
+        <v>32.79</v>
+      </c>
+      <c r="O13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P13" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="R13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="U13" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="W13" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="X13" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>35.06</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="AV13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="K14" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="L14" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="M14" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="O14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>37.01</v>
+      </c>
+      <c r="R14" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="S14" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="T14" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="W14" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="X14" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34.32</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>33.86</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>25.53</v>
+      </c>
+      <c r="AV14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>20.24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="E15" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="G15" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="K15" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="L15" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="M15" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="O15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P15" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="R15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S15" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="T15" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="X15" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="AW15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="J16" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="N16" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="O16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="R16" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="S16" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="U16" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="W16" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>26.82</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="F17" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="H17" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="M17" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="N17" t="n">
+        <v>34.05</v>
+      </c>
+      <c r="O17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P17" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="R17" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="S17" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="T17" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="U17" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="V17" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="W17" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="X17" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="AI17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AV17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>37.51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>19.26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30.99</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="H18" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="K18" t="n">
+        <v>33.87</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="M18" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="N18" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="R18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="T18" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="V18" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="W18" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="X18" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>32.57</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="D19" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="G19" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="M19" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="N19" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="P19" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="R19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="T19" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="U19" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="V19" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="X19" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="AV19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>20.31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="G20" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="L20" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="M20" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="N20" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="P20" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="R20" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="S20" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="T20" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="U20" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="V20" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="W20" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="X20" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>28.87</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="AV20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="F21" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="G21" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="H21" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="J21" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="K21" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="L21" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="M21" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="P21" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="R21" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="T21" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="U21" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="V21" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="W21" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="X21" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>36.01</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="AV21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="D22" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="E22" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="G22" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="H22" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="J22" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="K22" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="O22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P22" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="R22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S22" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="T22" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="W22" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="X22" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="AV22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>20.26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="G23" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="J23" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="K23" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="L23" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="M23" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="O23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>31.62</v>
+      </c>
+      <c r="R23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S23" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="T23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="V23" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="W23" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="X23" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>32.21</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>33.05</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="AV23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>36.48</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="E24" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="G24" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="J24" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="L24" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="M24" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="R24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S24" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="T24" t="n">
+        <v>29.06</v>
+      </c>
+      <c r="U24" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="V24" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="X24" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>29.87</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>39.11</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>18.65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="D25" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="H25" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="K25" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="L25" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="M25" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="N25" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="O25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P25" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="R25" t="n">
+        <v>34.76</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="T25" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="U25" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="V25" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="W25" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="X25" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="E26" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="H26" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="J26" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="K26" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="L26" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="M26" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="N26" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="O26" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="P26" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="R26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S26" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="T26" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="U26" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="V26" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="W26" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="X26" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="AV26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>27.29</v>
+      </c>
+      <c r="E27" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="F27" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="J27" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="K27" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="M27" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="N27" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="O27" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="R27" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="S27" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="T27" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="U27" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="V27" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="W27" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="X27" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="AV27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>18.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Practice Data/Laura's Data/metadata.xlsx
+++ b/Practice Data/Laura's Data/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ObrienJas\Documents\GitHub\Maleks_qPCR_Pipeline\Practice Data\Laura's Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7623A21D-8631-4D3B-B94E-AD71EEA6AA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F51112B-1E15-4720-98AA-69E34C60742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="110">
   <si>
     <t>blank</t>
   </si>
@@ -338,13 +338,37 @@
     <t>Min Ct</t>
   </si>
   <si>
-    <t>FIGURE</t>
-  </si>
-  <si>
     <t>PROCEED TO NORMALIZATION</t>
   </si>
   <si>
     <t>QUALITY CONTROL PAGE</t>
+  </si>
+  <si>
+    <t>Select QC Genes</t>
+  </si>
+  <si>
+    <t>Add another QC Gene</t>
+  </si>
+  <si>
+    <t>QC Gene</t>
+  </si>
+  <si>
+    <t>QC Type</t>
+  </si>
+  <si>
+    <t>QC Types</t>
+  </si>
+  <si>
+    <t>Genomic Contamination</t>
+  </si>
+  <si>
+    <t>PCR positive</t>
+  </si>
+  <si>
+    <t>No Template Control</t>
+  </si>
+  <si>
+    <t>Reverse Transcriptase Control</t>
   </si>
 </sst>
 </file>
@@ -375,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +421,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,24 +564,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9623,14 +9657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678BB225-E418-442B-BA8E-4F7AC6CE34F9}">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -9691,7 +9727,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -9788,11 +9824,8 @@
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -9811,8 +9844,10 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="M11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="16"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -9851,14 +9886,10 @@
         <v>7</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -9876,11 +9907,13 @@
         <v>12</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -9902,7 +9935,9 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -9922,9 +9957,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -9945,8 +9978,10 @@
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="M17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="16"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -9991,16 +10026,14 @@
         <v>36</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="9">
-        <v>35</v>
+        <v>103</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -10021,11 +10054,17 @@
         <v>92</v>
       </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="N20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -10069,17 +10108,13 @@
         <v>87</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O22" s="9">
-        <v>14</v>
-      </c>
+      <c r="M22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -10137,12 +10172,21 @@
       <c r="B25" t="s">
         <v>22</v>
       </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="N25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="9">
+        <v>35</v>
+      </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -10157,6 +10201,9 @@
       </c>
       <c r="B26" t="s">
         <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
@@ -10179,12 +10226,21 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="9">
+        <v>14</v>
+      </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -10199,6 +10255,9 @@
       </c>
       <c r="B28" t="s">
         <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="5"/>
@@ -10221,24 +10280,27 @@
       <c r="B29" t="s">
         <v>27</v>
       </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="3"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="V29" s="6"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="4"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -10247,13 +10309,13 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="6"/>
+      <c r="U30" s="5"/>
       <c r="V30" s="6"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J31" s="4"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -10262,38 +10324,36 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="6"/>
+      <c r="U31" s="5"/>
       <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J32" s="4"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="6"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="3"/>
       <c r="V32" s="6"/>
     </row>
     <row r="33" spans="10:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="4"/>
       <c r="K33" s="5"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
@@ -10503,19 +10563,19 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M32:T43"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N9 N13:N14" xr:uid="{D67C1249-DBDC-48E2-BC19-FF16CBFE3456}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N9 N14:N15 N20" xr:uid="{D67C1249-DBDC-48E2-BC19-FF16CBFE3456}">
       <formula1>$F$18:$F$22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O20" xr:uid="{DFFA311F-2447-4CC0-8172-441E22B61A08}">
+      <formula1>$F$26:$F$29</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
